--- a/FinalResults/spare_parts.xlsx
+++ b/FinalResults/spare_parts.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F63"/>
+  <dimension ref="A1:G63"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -464,6 +464,11 @@
           <t>usedQty</t>
         </is>
       </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>spareCosts</t>
+        </is>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="inlineStr">
@@ -493,6 +498,11 @@
       <c r="F2" t="n">
         <v>12</v>
       </c>
+      <c r="G2" t="inlineStr">
+        <is>
+          <t>{'BOLT': 1.13, 'ELBOW': 533.52, 'PLATE': 153.27, 'SEAL': 824.85, 'SEALANT (310 ML)': 5.8}</t>
+        </is>
+      </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
@@ -517,6 +527,9 @@
         <v>0</v>
       </c>
       <c r="F3" t="n">
+        <v>0</v>
+      </c>
+      <c r="G3" t="n">
         <v>0</v>
       </c>
     </row>
@@ -550,6 +563,11 @@
       <c r="F4" t="n">
         <v>5</v>
       </c>
+      <c r="G4" t="inlineStr">
+        <is>
+          <t>{'DISCHRGR': 357.27}</t>
+        </is>
+      </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
@@ -580,6 +598,11 @@
       <c r="F5" t="n">
         <v>2</v>
       </c>
+      <c r="G5" t="inlineStr">
+        <is>
+          <t>{'LAMP': 1.35, 'LAMP-GE S-8 28V 643W SC BAYONET': 2.52}</t>
+        </is>
+      </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
@@ -609,6 +632,11 @@
       </c>
       <c r="F6" t="n">
         <v>4</v>
+      </c>
+      <c r="G6" t="inlineStr">
+        <is>
+          <t>{'ELBOW': 177.84, 'SEAL': 487.89}</t>
+        </is>
       </c>
     </row>
     <row r="7">
@@ -642,6 +670,11 @@
       <c r="F7" t="n">
         <v>21</v>
       </c>
+      <c r="G7" t="inlineStr">
+        <is>
+          <t>{'CORROSION INHIBITING COMPOUND-SPRAY': 39.66, 'FOAM TAPE': 158.13, 'Low Density Sealant': 148.01, 'NON AQUEOUS CLEANER-GENERAL': 13.75, 'SEALANT (130 ML)': 101.44, 'corrosion inhibiting compound': 45.8}</t>
+        </is>
+      </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
@@ -674,6 +707,11 @@
       <c r="F8" t="n">
         <v>458</v>
       </c>
+      <c r="G8" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 428.94, 'ALEXIT-FST FILLER 495-14 incl. Hardener 491-14': 803.26, 'FOAM TAPE': 368.96, 'GILLFAB 0.496"X60"X144"': 10205.33, 'INSERT ASSY SLEEVE AND PLUG': 669.24, 'ISOPROPYL ALCOHOL': 7.49, 'Low Density Sealant': 296.01, 'corrosion inhibiting compound': 45.8}</t>
+        </is>
+      </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
@@ -701,6 +739,11 @@
       </c>
       <c r="F9" t="n">
         <v>91</v>
+      </c>
+      <c r="G9" t="inlineStr">
+        <is>
+          <t>{'SCREW': 20.95, 'STUD': 40.15, 'WASHER': 21.880000000000003}</t>
+        </is>
       </c>
     </row>
     <row r="10">
@@ -732,6 +775,11 @@
       <c r="F10" t="n">
         <v>121</v>
       </c>
+      <c r="G10" t="inlineStr">
+        <is>
+          <t>{'SCREW': 28.43, 'SECTION': 104.01, 'STUD': 400.41, 'WASHER': 6.84}</t>
+        </is>
+      </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
@@ -760,6 +808,11 @@
       <c r="F11" t="n">
         <v>8</v>
       </c>
+      <c r="G11" t="inlineStr">
+        <is>
+          <t>{'STUD': 9.87, 'WASHER': 2.01}</t>
+        </is>
+      </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
@@ -789,6 +842,11 @@
       <c r="F12" t="n">
         <v>4</v>
       </c>
+      <c r="G12" t="inlineStr">
+        <is>
+          <t>{'ACCESS DOOR SEALANT': 160.02, 'VALVE': 62.06}</t>
+        </is>
+      </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
@@ -818,6 +876,11 @@
       <c r="F13" t="n">
         <v>1</v>
       </c>
+      <c r="G13" t="inlineStr">
+        <is>
+          <t>{'FILTER': 153.15}</t>
+        </is>
+      </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
@@ -847,6 +910,11 @@
       <c r="F14" t="n">
         <v>3</v>
       </c>
+      <c r="G14" t="inlineStr">
+        <is>
+          <t>{'CLAMP': 159.12, 'HOSE': 288.99}</t>
+        </is>
+      </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
@@ -875,6 +943,11 @@
       <c r="F15" t="n">
         <v>2</v>
       </c>
+      <c r="G15" t="inlineStr">
+        <is>
+          <t>{'BUSHING': 3.58}</t>
+        </is>
+      </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
@@ -901,6 +974,9 @@
       <c r="F16" t="n">
         <v>0</v>
       </c>
+      <c r="G16" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
@@ -928,6 +1004,11 @@
       </c>
       <c r="F17" t="n">
         <v>14</v>
+      </c>
+      <c r="G17" t="inlineStr">
+        <is>
+          <t>{'CABLE': 224.64, 'LEAD': 224.26999999999998}</t>
+        </is>
       </c>
     </row>
     <row r="18">
@@ -959,6 +1040,9 @@
       <c r="F18" t="n">
         <v>0</v>
       </c>
+      <c r="G18" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
@@ -986,6 +1070,9 @@
       <c r="F19" t="n">
         <v>0</v>
       </c>
+      <c r="G19" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
@@ -1011,6 +1098,9 @@
         <v>0</v>
       </c>
       <c r="F20" t="n">
+        <v>0</v>
+      </c>
+      <c r="G20" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1043,6 +1133,9 @@
       <c r="F21" t="n">
         <v>0</v>
       </c>
+      <c r="G21" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
@@ -1067,6 +1160,9 @@
         <v>0</v>
       </c>
       <c r="F22" t="n">
+        <v>0</v>
+      </c>
+      <c r="G22" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1097,6 +1193,9 @@
       <c r="F23" t="n">
         <v>0</v>
       </c>
+      <c r="G23" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
@@ -1124,6 +1223,11 @@
       </c>
       <c r="F24" t="n">
         <v>5</v>
+      </c>
+      <c r="G24" t="inlineStr">
+        <is>
+          <t>{'SCREW': 1.73, 'SEAL': 215.28}</t>
+        </is>
       </c>
     </row>
     <row r="25">
@@ -1153,6 +1257,9 @@
       <c r="F25" t="n">
         <v>0</v>
       </c>
+      <c r="G25" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
@@ -1181,6 +1288,9 @@
       <c r="F26" t="n">
         <v>0</v>
       </c>
+      <c r="G26" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
@@ -1209,6 +1319,9 @@
       <c r="F27" t="n">
         <v>0</v>
       </c>
+      <c r="G27" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
@@ -1236,6 +1349,11 @@
       </c>
       <c r="F28" t="n">
         <v>1</v>
+      </c>
+      <c r="G28" t="inlineStr">
+        <is>
+          <t>{'SEAL': 215.28}</t>
+        </is>
       </c>
     </row>
     <row r="29">
@@ -1265,6 +1383,9 @@
       <c r="F29" t="n">
         <v>0</v>
       </c>
+      <c r="G29" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
@@ -1293,6 +1414,9 @@
       <c r="F30" t="n">
         <v>0</v>
       </c>
+      <c r="G30" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
@@ -1323,6 +1447,11 @@
       <c r="F31" t="n">
         <v>2.54</v>
       </c>
+      <c r="G31" t="inlineStr">
+        <is>
+          <t>{'ALODINE CHROMATING POWDER': 9.43, 'Demineralized Water.': 1.42, 'Fuel Tank Sealant': 53.69, 'NON AQUEOUS CLEANER-GENERAL': 6.93}</t>
+        </is>
+      </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
@@ -1347,6 +1476,9 @@
         <v>0</v>
       </c>
       <c r="F32" t="n">
+        <v>0</v>
+      </c>
+      <c r="G32" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1383,6 +1515,11 @@
       <c r="F33" t="n">
         <v>555</v>
       </c>
+      <c r="G33" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 428.22, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 37.69, 'FOAM TAPE': 527.09, 'GILLFAB 0.496"X60"X144"': 10477.47, 'INSERT ASSY SLEEVE AND PLUG': 823.68, 'ISOPROPYL ALCOHOL': 18.69, 'Low Density Sealant': 222.01, 'SEALANT (130 ML)': 114.62, 'corrosion inhibiting compound': 45.78, 'Â Edge Sealing Compound': 1752.55}</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
@@ -1416,6 +1553,11 @@
       <c r="F34" t="n">
         <v>81</v>
       </c>
+      <c r="G34" t="inlineStr">
+        <is>
+          <t>{'BLIND RIVET': 4.59, 'FOAM TAPE': 210.83, 'Low Density Sealant': 296.01, 'NUT': 3.7, 'NUT CLIP': 116.06, 'PIN': 0.12000000000000001, 'corrosion inhibiting compound': 45.78}</t>
+        </is>
+      </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
@@ -1446,6 +1588,11 @@
       <c r="F35" t="n">
         <v>27</v>
       </c>
+      <c r="G35" t="inlineStr">
+        <is>
+          <t>{'SCREW': 13.46, 'SECTION': 183.35}</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
@@ -1476,6 +1623,11 @@
       <c r="F36" t="n">
         <v>127</v>
       </c>
+      <c r="G36" t="inlineStr">
+        <is>
+          <t>{'SCREW': 11.23, 'SECTION': 352.55, 'STUD': 534.02, 'WASHER': 13.07}</t>
+        </is>
+      </c>
     </row>
     <row r="37">
       <c r="A37" t="inlineStr">
@@ -1504,6 +1656,11 @@
       <c r="F37" t="n">
         <v>5</v>
       </c>
+      <c r="G37" t="inlineStr">
+        <is>
+          <t>{'Access Door Sealant': 88.48, 'VALVE': 82.74}</t>
+        </is>
+      </c>
     </row>
     <row r="38">
       <c r="A38" t="inlineStr">
@@ -1532,6 +1689,11 @@
       <c r="F38" t="n">
         <v>2</v>
       </c>
+      <c r="G38" t="inlineStr">
+        <is>
+          <t>{'CONTACT': 26.68}</t>
+        </is>
+      </c>
     </row>
     <row r="39">
       <c r="A39" t="inlineStr">
@@ -1560,6 +1722,11 @@
       <c r="F39" t="n">
         <v>9</v>
       </c>
+      <c r="G39" t="inlineStr">
+        <is>
+          <t>{'DISCHRGR': 608.0}</t>
+        </is>
+      </c>
     </row>
     <row r="40">
       <c r="A40" t="inlineStr">
@@ -1588,6 +1755,11 @@
       </c>
       <c r="F40" t="n">
         <v>1</v>
+      </c>
+      <c r="G40" t="inlineStr">
+        <is>
+          <t>{'BELLOWS': 596.7}</t>
+        </is>
       </c>
     </row>
     <row r="41">
@@ -1621,6 +1793,9 @@
       <c r="F41" t="n">
         <v>0</v>
       </c>
+      <c r="G41" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="42">
       <c r="A42" t="inlineStr">
@@ -1653,6 +1828,9 @@
       <c r="F42" t="n">
         <v>0</v>
       </c>
+      <c r="G42" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="43">
       <c r="A43" t="inlineStr">
@@ -1683,6 +1861,11 @@
       <c r="F43" t="n">
         <v>3</v>
       </c>
+      <c r="G43" t="inlineStr">
+        <is>
+          <t>{'LAMP': 33.08}</t>
+        </is>
+      </c>
     </row>
     <row r="44">
       <c r="A44" t="inlineStr">
@@ -1711,6 +1894,11 @@
       <c r="F44" t="n">
         <v>32</v>
       </c>
+      <c r="G44" t="inlineStr">
+        <is>
+          <t>{'RECEPTCL': 7.38, 'SCREW': 13.0, 'STUD': 18.4, 'WASHER': 4.77}</t>
+        </is>
+      </c>
     </row>
     <row r="45">
       <c r="A45" t="inlineStr">
@@ -1739,6 +1927,11 @@
       <c r="F45" t="n">
         <v>22</v>
       </c>
+      <c r="G45" t="inlineStr">
+        <is>
+          <t>{'CABLE': 1095.12, 'Fuel Tank Sealant': 53.69, 'LEAD': 232.94}</t>
+        </is>
+      </c>
     </row>
     <row r="46">
       <c r="A46" t="inlineStr">
@@ -1767,6 +1960,11 @@
       </c>
       <c r="F46" t="n">
         <v>1</v>
+      </c>
+      <c r="G46" t="inlineStr">
+        <is>
+          <t>{'FILTER': 14.65}</t>
+        </is>
       </c>
     </row>
     <row r="47">
@@ -1798,6 +1996,9 @@
       <c r="F47" t="n">
         <v>0</v>
       </c>
+      <c r="G47" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="48">
       <c r="A48" t="inlineStr">
@@ -1822,6 +2023,9 @@
         <v>0</v>
       </c>
       <c r="F48" t="n">
+        <v>0</v>
+      </c>
+      <c r="G48" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1857,6 +2061,11 @@
       <c r="F49" t="n">
         <v>13</v>
       </c>
+      <c r="G49" t="inlineStr">
+        <is>
+          <t>{'BOLT': 0.19, 'COMPASS LIGHT': 99.98, 'LAMP': 37.85, 'MOULD RELEASE AGENT': 31.82, 'SCREW': 2.15, 'SEALANT': 159.12}</t>
+        </is>
+      </c>
     </row>
     <row r="50">
       <c r="A50" t="inlineStr">
@@ -1883,6 +2092,9 @@
         <v>0</v>
       </c>
       <c r="F50" t="n">
+        <v>0</v>
+      </c>
+      <c r="G50" t="n">
         <v>0</v>
       </c>
     </row>
@@ -1916,6 +2128,11 @@
       </c>
       <c r="F51" t="n">
         <v>131</v>
+      </c>
+      <c r="G51" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE HYSOL EA9309-3 1 QUART PER KIT BMSÂ 5-109 Type I, Class 1': 424.37, 'ADHESIVE TAPE': 378.14, 'Disposable Protective Coverall Safety Work Wear 3M 4520 Body Suit': 36.0, 'Disposable Protective Coverall Safety Work Wear 3M 4540 Medium Body Suit MAKE(KEELGUARD)': 13.55, 'Fuel Tank Sealant': 256.21, 'GILLFAB 0.496"X60"X144"': 3596.78, 'NUT CLIP': 11.61, 'SCREW': 4.49, 'SECTION': 85.41, 'STUD': 305.59, 'WASHER': 6.42, 'Â Edge Sealing Compound': 553.37}</t>
+        </is>
       </c>
     </row>
     <row r="52">
@@ -1953,6 +2170,11 @@
       <c r="F52" t="n">
         <v>20</v>
       </c>
+      <c r="G52" t="inlineStr">
+        <is>
+          <t>{'BRAID': 68.33000000000001, 'CABLE': 375.34000000000003, 'LEAD': 189.51, 'SEALANT': 65.23}</t>
+        </is>
+      </c>
     </row>
     <row r="53">
       <c r="A53" t="inlineStr">
@@ -1984,6 +2206,11 @@
       <c r="F53" t="n">
         <v>123.5</v>
       </c>
+      <c r="G53" t="inlineStr">
+        <is>
+          <t>{'ADHESIVE TAPE': 189.07, 'CORROSION INHIBITING COMPOUND': 45.49, 'Fuel Tank Sealant': 768.62, 'INSERT ASSY SLEEVE AND PLUG': 134.55, 'METHYL ETHYL KETONE': 6.98, 'NON AQUEOUS CLEANER-GENERAL': 6.88, 'SCREW': 19.14, 'STUD': 557.3499999999999}</t>
+        </is>
+      </c>
     </row>
     <row r="54">
       <c r="A54" t="inlineStr">
@@ -2010,6 +2237,9 @@
       <c r="F54" t="n">
         <v>0</v>
       </c>
+      <c r="G54" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="55">
       <c r="A55" t="inlineStr">
@@ -2037,6 +2267,9 @@
       <c r="F55" t="n">
         <v>0</v>
       </c>
+      <c r="G55" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="56">
       <c r="A56" t="inlineStr">
@@ -2063,6 +2296,9 @@
       <c r="F56" t="n">
         <v>0</v>
       </c>
+      <c r="G56" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="57">
       <c r="A57" t="inlineStr">
@@ -2091,6 +2327,11 @@
       <c r="F57" t="n">
         <v>3</v>
       </c>
+      <c r="G57" t="inlineStr">
+        <is>
+          <t>{'Fuel Tank Sealant': 53.33, 'JOINT COMPOUND': 158.01, 'NUT': 6.13}</t>
+        </is>
+      </c>
     </row>
     <row r="58">
       <c r="A58" t="inlineStr">
@@ -2120,6 +2361,11 @@
       <c r="F58" t="n">
         <v>6</v>
       </c>
+      <c r="G58" t="inlineStr">
+        <is>
+          <t>{'Fuel Tank Sealant': 43.07, 'PIN': 0.23}</t>
+        </is>
+      </c>
     </row>
     <row r="59">
       <c r="A59" t="inlineStr">
@@ -2146,6 +2392,9 @@
       <c r="F59" t="n">
         <v>0</v>
       </c>
+      <c r="G59" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="60">
       <c r="A60" t="inlineStr">
@@ -2174,6 +2423,11 @@
       <c r="F60" t="n">
         <v>1</v>
       </c>
+      <c r="G60" t="inlineStr">
+        <is>
+          <t>{'SEAL': 215.28}</t>
+        </is>
+      </c>
     </row>
     <row r="61">
       <c r="A61" t="inlineStr">
@@ -2200,6 +2454,9 @@
       <c r="F61" t="n">
         <v>0</v>
       </c>
+      <c r="G61" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="62">
       <c r="A62" t="inlineStr">
@@ -2226,6 +2483,9 @@
       <c r="F62" t="n">
         <v>0</v>
       </c>
+      <c r="G62" t="n">
+        <v>0</v>
+      </c>
     </row>
     <row r="63">
       <c r="A63" t="inlineStr">
@@ -2250,6 +2510,9 @@
         <v>0</v>
       </c>
       <c r="F63" t="n">
+        <v>0</v>
+      </c>
+      <c r="G63" t="n">
         <v>0</v>
       </c>
     </row>
